--- a/plants/plant_data.xlsx
+++ b/plants/plant_data.xlsx
@@ -68,6 +68,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -156,12 +157,12 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -185,7 +186,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>5.35135135135135E+017</v>
+        <v>5.3727957217307E+017</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -193,7 +194,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>4.91891891891892E+017</v>
+        <v>4.92224176007193E+017</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -201,7 +202,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>4.86486486486487E+017</v>
+        <v>4.86114814442437E+017</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -209,7 +210,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>4.75675675675676E+017</v>
+        <v>4.72492352240032E+017</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -217,7 +218,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>4.56756756756757E+017</v>
+        <v>4.53674063686505E+017</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -225,7 +226,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>4.08108108108108E+017</v>
+        <v>4.04758324088686E+017</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -233,7 +234,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>3.91891891891892E+017</v>
+        <v>3.90290288432993E+017</v>
       </c>
     </row>
   </sheetData>
